--- a/Data/Processed/Angiosperms/missing_powo_ipni/Burmanniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Burmanniaceae.xlsx
@@ -2467,7 +2467,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
